--- a/Laboratory work №4/Labotatory work №4.xlsx
+++ b/Laboratory work №4/Labotatory work №4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3 курс 1 сем\МОПС\Labaratory work №4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3 курс 1 сем\МОПС\Laboratory work №4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956C527B-C1E7-4EE5-AD8F-3E5C146468E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55C36FA-B005-434C-B2AE-6F52A22C7774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Игры с природой в усл-ях риска" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -792,19 +792,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -843,50 +831,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -897,24 +846,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,17 +867,8 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -950,15 +878,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -966,15 +885,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1007,6 +917,96 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1060,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E93B86-7E58-4306-AF5F-DCE0C49EA376}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1119,7 +1119,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0832A53D-D306-4521-ACFA-B98894EA596B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1173,7 +1173,7 @@
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D70C7C-6870-4C4E-AF25-A584EABA114B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1227,7 +1227,7 @@
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E961E7-104E-4B56-BC5E-88CDCBFD2133}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1286,7 +1286,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02CB0E7-F565-4B21-8B5A-C51E38F2154E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1340,7 +1340,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CB2394-D76D-4B0A-A767-3C74663EA9C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1394,7 +1394,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8400AD-8FA0-423A-9A65-7A074085CFCB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBB8A18-7241-49CB-AF1E-1AB5DF3FB232}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD72346B-4DA6-4887-872A-A319375B0555}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1556,7 +1556,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4C3C60-52BF-4C92-9089-CF0960F0C6D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1591,16 +1591,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1610,7 +1610,7 @@
                   <a14:compatExt spid="_x0000_s3080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875BCCA4-A60C-47AC-9EC7-99BF7E1D5D6A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000080C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1909,41 +1909,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="75" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5">
@@ -1955,7 +1955,7 @@
       <c r="D2" s="10">
         <v>0.4</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="23">
         <f>B2*H$2+C$2*I2+D2*J$2</f>
         <v>0.31</v>
       </c>
@@ -1970,7 +1970,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
@@ -1982,13 +1982,13 @@
       <c r="D3" s="10">
         <v>0.3</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="23">
         <f>B3*H$2+C$2*I2+D3*J$2</f>
         <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="75" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
@@ -2000,13 +2000,13 @@
       <c r="D4" s="10">
         <v>0.2</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="23">
         <f>B4*H$2+C$2*I3+D4*J$2</f>
         <v>0.215</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="10">
@@ -2018,26 +2018,26 @@
       <c r="D5" s="10">
         <v>0.35</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="23">
         <f>B5*H$2+C$2*I4+D5*J$2</f>
         <v>0.47000000000000003</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="69">
         <f>MAX(E2:E5)</f>
         <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="70"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2053C4-9D32-4F15-B12E-FEA7FE6F59D0}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,41 +2195,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -2237,30 +2237,30 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="20">
         <v>280</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="89">
         <v>140</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24">
+      <c r="D3" s="90"/>
+      <c r="E3" s="21">
         <v>210</v>
       </c>
       <c r="F3" s="19">
         <v>245</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="47">
         <v>140</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="82">
+      <c r="I3" s="58">
         <v>140</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="27">
         <v>0.4</v>
       </c>
       <c r="L3" s="8">
@@ -2268,17 +2268,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="19">
         <v>420</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="89">
         <v>560</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="24">
+      <c r="D4" s="91"/>
+      <c r="E4" s="21">
         <v>140</v>
       </c>
       <c r="F4" s="19">
@@ -2287,33 +2287,33 @@
       <c r="G4" s="11">
         <v>140</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="82">
+      <c r="H4" s="46"/>
+      <c r="I4" s="58">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="10">
         <v>245</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="89">
         <v>315</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="10">
         <v>350</v>
       </c>
       <c r="F5" s="10">
         <v>490</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="47">
         <v>245</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="81">
+      <c r="H5" s="46"/>
+      <c r="I5" s="57">
         <v>245</v>
       </c>
     </row>
@@ -2329,40 +2329,40 @@
     </row>
     <row r="7" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="15"/>
-      <c r="G7" s="56"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="27"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="53"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="2"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="109" t="s">
+      <c r="J11" s="79" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="2"/>
@@ -2371,49 +2371,49 @@
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="62" t="s">
+      <c r="I12" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="20">
         <v>280</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="89">
         <v>140</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24">
+      <c r="D13" s="90"/>
+      <c r="E13" s="21">
         <v>210</v>
       </c>
       <c r="F13" s="19">
         <v>245</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="40">
         <f>MIN(B13:F13)*K3</f>
         <v>56</v>
       </c>
@@ -2421,27 +2421,27 @@
         <f>MAX(B13:F13)*L3</f>
         <v>168</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="41">
         <f>G13+H13</f>
         <v>224</v>
       </c>
-      <c r="J13" s="82">
+      <c r="J13" s="58">
         <v>224</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="19">
         <v>420</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="89">
         <v>560</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="24">
+      <c r="D14" s="91"/>
+      <c r="E14" s="21">
         <v>140</v>
       </c>
       <c r="F14" s="19">
@@ -2459,29 +2459,29 @@
         <f>G14+H14</f>
         <v>392</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="59">
         <v>392</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="10">
         <v>245</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="89">
         <v>315</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="10">
         <v>350</v>
       </c>
       <c r="F15" s="10">
         <v>490</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="27">
         <f>MIN(B15:F15)*K3</f>
         <v>98</v>
       </c>
@@ -2493,21 +2493,21 @@
         <f>G15+H15</f>
         <v>392</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="59">
         <v>392</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="54"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2520,16 +2520,16 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="27"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2540,9 +2540,9 @@
       <c r="B20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="37"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -2554,17 +2554,17 @@
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="29" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="2"/>
@@ -2573,17 +2573,17 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="20">
         <v>280</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="89">
         <v>140</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24">
+      <c r="D22" s="90"/>
+      <c r="E22" s="21">
         <v>210</v>
       </c>
       <c r="F22" s="19">
@@ -2596,17 +2596,17 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="19">
         <v>420</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="89">
         <v>560</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24">
+      <c r="D23" s="90"/>
+      <c r="E23" s="21">
         <v>140</v>
       </c>
       <c r="F23" s="19">
@@ -2614,16 +2614,16 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="10">
         <v>245</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="89">
         <v>315</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="10">
         <v>350</v>
       </c>
@@ -2632,16 +2632,16 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="11">
         <v>420</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="92">
         <v>560</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="11">
         <v>350</v>
       </c>
@@ -2654,41 +2654,41 @@
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="20">
         <f>B$25-B22</f>
         <v>140</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="89">
         <f>C$25-C22</f>
         <v>420</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="24">
+      <c r="D28" s="90"/>
+      <c r="E28" s="21">
         <f>E$25-E22</f>
         <v>140</v>
       </c>
@@ -2700,25 +2700,25 @@
         <f>MAX(B28:F28)</f>
         <v>420</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="84">
+      <c r="H28" s="24"/>
+      <c r="I28" s="60">
         <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="20">
         <f t="shared" ref="B29:C30" si="0">B$25-B23</f>
         <v>0</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24">
+      <c r="D29" s="90"/>
+      <c r="E29" s="21">
         <f t="shared" ref="E29:F30" si="1">E$25-E23</f>
         <v>210</v>
       </c>
@@ -2730,25 +2730,25 @@
         <f>MAX(B29:F29)</f>
         <v>210</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="85">
+      <c r="H29" s="23"/>
+      <c r="I29" s="61">
         <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="20">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="89">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24">
+      <c r="D30" s="90"/>
+      <c r="E30" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2756,30 +2756,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="27">
         <f>MAX(B30:F30)</f>
         <v>245</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="86">
+      <c r="H30" s="25"/>
+      <c r="I30" s="62">
         <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="69" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="26">
         <f>MIN(G28:G30)</f>
         <v>210</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2890,7 +2890,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,29 +2902,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="87" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="51" t="s">
         <v>37</v>
       </c>
       <c r="M3" s="11">
@@ -2932,23 +2932,23 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="20">
         <v>4</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="89">
         <v>1</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="10">
         <v>2</v>
       </c>
       <c r="F4" s="19">
         <v>5</v>
       </c>
-      <c r="G4" s="96"/>
+      <c r="G4" s="104"/>
       <c r="H4" s="8" cm="1">
         <f t="array" ref="H4">SUMPRODUCT(B4:B6*M3)</f>
         <v>1.75</v>
@@ -2957,7 +2957,7 @@
         <f>MAX(H4:H7)</f>
         <v>3.54</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="52" t="s">
         <v>38</v>
       </c>
       <c r="M4" s="11">
@@ -2965,29 +2965,29 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="108">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="18">
         <v>0</v>
       </c>
       <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="96"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="8" cm="1">
         <f t="array" ref="H5">SUMPRODUCT(B5:B7*M4)</f>
         <v>1.0499999999999998</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="53" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="11">
@@ -2995,29 +2995,29 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>0</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="89">
         <v>3</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="10">
         <v>2</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="104"/>
       <c r="H6" s="8" cm="1">
         <f t="array" ref="H6">SUMPRODUCT(B6:B8*M5)</f>
         <v>1</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="L6" s="75" t="s">
+      <c r="L6" s="54" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="11">
@@ -3025,18 +3025,18 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="11">
         <f>MAX(B4:B6)</f>
         <v>4</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="92">
         <f t="shared" ref="C7:F7" si="0">MAX(C4:C6)</f>
         <v>3</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3045,7 +3045,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="97"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="8" cm="1">
         <f t="array" ref="H7">SUMPRODUCT(B7:B9*M6)</f>
         <v>3.54</v>
@@ -3053,18 +3053,18 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="66" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="11">
         <f>B7*M3</f>
         <v>1</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="95">
         <f>C7*M4</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="8">
         <f>E7*M5</f>
         <v>0.4</v>
@@ -3075,7 +3075,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="65" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="8">
@@ -3084,7 +3084,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="67" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="8">
@@ -3093,21 +3093,21 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="b">
+      <c r="A14" s="100" t="b">
         <f>IF(B10&lt;B9-I4,)</f>
         <v>0</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3281,16 +3281,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId16">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>352425</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
